--- a/Code/Components/Services/skymodel/current/schema_definitions/GSM_data_source_description.xlsx
+++ b/Code/Components/Services/skymodel/current/schema_definitions/GSM_data_source_description.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Catalogue description" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,12 +48,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If true, then an entry for this item is generated in the query criteria structure. This allows search criteria to be specified for the field when using the Ice API</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indicates that negative values are invalid for the given field. This allows generation of a simpler search criteria API since negative values can be used to indicate an unused criteria. If this flag is true, then an additional boolean is generated.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>catalogue_id</t>
   </si>
@@ -99,13 +147,19 @@
   <si>
     <t>gsm.data_source
 11 November 2016</t>
+  </si>
+  <si>
+    <t>generate_query_criteria</t>
+  </si>
+  <si>
+    <t>negative_is_invalid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,18 +194,21 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +243,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -305,6 +375,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -324,7 +403,47 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -651,13 +770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" style="1" customWidth="1"/>
@@ -667,11 +786,12 @@
     <col min="6" max="6" width="10.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="7"/>
     <col min="8" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="9" width="61.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="9" max="10" width="9.140625" style="28"/>
+    <col min="11" max="11" width="61.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" customHeight="1">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
@@ -679,9 +799,11 @@
       <c r="C1" s="25"/>
       <c r="D1" s="11"/>
       <c r="F1" s="17"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -706,11 +828,17 @@
       <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" ht="15.95" customHeight="1">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -733,9 +861,15 @@
       <c r="H3" s="18">
         <v>0</v>
       </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -758,12 +892,18 @@
       <c r="H4" s="8">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.95" customHeight="1">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -772,10 +912,16 @@
       <c r="F5" s="20"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="12"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -784,9 +930,15 @@
       <c r="F6" s="20"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -795,9 +947,15 @@
       <c r="F7" s="20"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -806,9 +964,15 @@
       <c r="F8" s="20"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -817,9 +981,15 @@
       <c r="F9" s="20"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -828,9 +998,15 @@
       <c r="F10" s="20"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -839,9 +1015,15 @@
       <c r="F11" s="20"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -850,9 +1032,15 @@
       <c r="F12" s="20"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="15.95" customHeight="1">
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -861,9 +1049,15 @@
       <c r="F13" s="20"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -872,9 +1066,15 @@
       <c r="F14" s="20"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -883,9 +1083,15 @@
       <c r="F15" s="20"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.95" customHeight="1">
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -894,9 +1100,15 @@
       <c r="F16" s="20"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -905,9 +1117,15 @@
       <c r="F17" s="20"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -916,9 +1134,15 @@
       <c r="F18" s="20"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -927,9 +1151,15 @@
       <c r="F19" s="20"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -938,9 +1168,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I20" s="27">
+        <v>0</v>
+      </c>
+      <c r="J20" s="27">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -949,9 +1185,15 @@
       <c r="F21" s="20"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I21" s="27">
+        <v>0</v>
+      </c>
+      <c r="J21" s="27">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -960,9 +1202,15 @@
       <c r="F22" s="20"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I22" s="27">
+        <v>0</v>
+      </c>
+      <c r="J22" s="27">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -971,9 +1219,15 @@
       <c r="F23" s="20"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="27">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -982,9 +1236,15 @@
       <c r="F24" s="20"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I24" s="27">
+        <v>0</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -993,9 +1253,15 @@
       <c r="F25" s="20"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="27">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1004,9 +1270,15 @@
       <c r="F26" s="20"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1015,9 +1287,15 @@
       <c r="F27" s="20"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1026,9 +1304,15 @@
       <c r="F28" s="20"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1037,9 +1321,15 @@
       <c r="F29" s="20"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I29" s="27">
+        <v>0</v>
+      </c>
+      <c r="J29" s="27">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1048,9 +1338,15 @@
       <c r="F30" s="20"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I30" s="27">
+        <v>0</v>
+      </c>
+      <c r="J30" s="27">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1059,9 +1355,15 @@
       <c r="F31" s="20"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I31" s="27">
+        <v>0</v>
+      </c>
+      <c r="J31" s="27">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="4"/>
@@ -1070,9 +1372,15 @@
       <c r="F32" s="20"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I32" s="27">
+        <v>0</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4"/>
@@ -1081,9 +1389,15 @@
       <c r="F33" s="20"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I33" s="27">
+        <v>0</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1092,9 +1406,15 @@
       <c r="F34" s="20"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I34" s="27">
+        <v>0</v>
+      </c>
+      <c r="J34" s="27">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1103,9 +1423,15 @@
       <c r="F35" s="20"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.95" customHeight="1">
+      <c r="I35" s="27">
+        <v>0</v>
+      </c>
+      <c r="J35" s="27">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -1114,20 +1440,72 @@
       <c r="F36" s="20"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="27">
+        <v>0</v>
+      </c>
+      <c r="J36" s="27">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H498">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J499">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
